--- a/biology/Zoologie/Gerboise_à_longues_oreilles/Gerboise_à_longues_oreilles.xlsx
+++ b/biology/Zoologie/Gerboise_à_longues_oreilles/Gerboise_à_longues_oreilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gerboise_%C3%A0_longues_oreilles</t>
+          <t>Gerboise_à_longues_oreilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchoreutes naso
 Le Gerboise à longues oreilles (Euchoreutes naso) est une petite gerboise, vivant en Asie centrale,dans les régions paléarctiques de Chine et de Mongolie, du désert de Gobi et qui était auparavant menacée de disparition. C'est la seule espèce du genre Euchoreutes qui est monotypique, lui-même étant le seul genre de la sous-famille des Euchoreutinae. Cette sous-famille de rongeurs sauteurs de la famille des Dipodidés a été créée zoologiste américain d'origine allemande Marcus Ward Lyon (1875-1942) en 1901.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gerboise_%C3%A0_longues_oreilles</t>
+          <t>Gerboise_à_longues_oreilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (3 juil. 2012)[1], NCBI  (3 juil. 2012)[2] et ITIS      (3 juil. 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (3 juil. 2012), NCBI  (3 juil. 2012) et ITIS      (3 juil. 2012) :
 Sous-famille Euchoreutinae Lyon, 1901
 genre Euchoreutes Sclater, 1891
 Euchoreutes naso Sclater, 1891</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gerboise_%C3%A0_longues_oreilles</t>
+          <t>Gerboise_à_longues_oreilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Protection de l'espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1996 l'espèce est classée « en danger » par l'UICN (Union internationale pour la conservation de la nature).
 En 2006 une pièce a été éditée, Wildlife Protection, en faveur de la faune du désert de Gobi et représentant Euchoreutes naso.
